--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
     <t>dog/dog012.png</t>
   </si>
   <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
   </si>
   <si>
     <t>dog/dog005.png</t>
   </si>
   <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
   </si>
   <si>
     <t>car/car012.png</t>
   </si>
   <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
     <t>face/face004.png</t>
   </si>
   <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
   </si>
   <si>
     <t>car/car027.png</t>
   </si>
   <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
     <t>car/car022.png</t>
   </si>
   <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
     <t>car/car028.png</t>
   </si>
   <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
   </si>
   <si>
     <t>car/car023.png</t>
   </si>
   <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
+    <t>car/car017.png</t>
   </si>
   <si>
     <t>face/face016.png</t>
   </si>
   <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
   </si>
   <si>
     <t>flower/flower047.png</t>
   </si>
   <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
   </si>
   <si>
     <t>flower/flower044.png</t>
   </si>
   <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
   </si>
   <si>
     <t>flower/flower041.png</t>
   </si>
   <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
     <t>face/face032.png</t>
   </si>
   <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
   </si>
   <si>
     <t>car/car048.png</t>
   </si>
   <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
     <t>flower/flower050.png</t>
   </si>
   <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
   </si>
   <si>
     <t>face/face059.png</t>
   </si>
   <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
   </si>
   <si>
     <t>flower/flower058.png</t>
   </si>
   <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
     <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.68667615514473</v>
+        <v>1.58441519633599</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.501205637940093</v>
+        <v>1.494487818544671</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.52437146432185</v>
+        <v>1.735735900100545</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.601436082392726</v>
+        <v>1.391173569765735</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.619369800813252</v>
+        <v>1.115674414321284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.441979238946815</v>
+        <v>1.669896006443358</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.463582052243057</v>
+        <v>1.636061336826109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.478908799921494</v>
+        <v>1.405402805595978</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.676975958662361</v>
+        <v>1.697209871356979</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.556069244195026</v>
+        <v>1.63958857174901</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.593995972314372</v>
+        <v>1.500253579645391</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.490562592433144</v>
+        <v>1.201526079702788</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.602883918823874</v>
+        <v>1.629681408120709</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.65660654730072</v>
+        <v>1.663908453230271</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.676305006525286</v>
+        <v>1.358541298403463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.463625847052731</v>
+        <v>1.326845979974628</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.464763720745301</v>
+        <v>1.448659840166964</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.321681160160219</v>
+        <v>1.327356734323741</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.411951666708523</v>
+        <v>1.765677105859931</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1.587215207960665</v>
+        <v>1.18549602742984</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.574644169016116</v>
+        <v>1.58632016588625</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.449567556978922</v>
+        <v>1.556647283294874</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.55795777561854</v>
+        <v>1.135976265269592</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.405856858117503</v>
+        <v>1.397245713392943</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.702326221899914</v>
+        <v>1.6887590286747</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.221682463317914</v>
+        <v>1.50054569241916</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.254198441403079</v>
+        <v>1.645021400324806</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.612658615183551</v>
+        <v>1.398104899914779</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.503160192698298</v>
+        <v>1.519143098504775</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.192975024385818</v>
+        <v>1.622385642283764</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.412689315871567</v>
+        <v>1.494275917630204</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.293687431236498</v>
+        <v>1.74524090247032</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.254974788794749</v>
+        <v>1.378926556495429</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.381159006915585</v>
+        <v>1.381608311776649</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.620819999854994</v>
+        <v>1.644912699558773</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.363864223748879</v>
+        <v>1.50294437168935</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.52924491438045</v>
+        <v>1.309252759940582</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.219369778197095</v>
+        <v>1.626541839241898</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.520092069983896</v>
+        <v>1.361510188590012</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.115194807649964</v>
+        <v>1.571917246609188</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.678100446768358</v>
+        <v>1.388981602768063</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.765092688189855</v>
+        <v>1.448960316407189</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.586221270693846</v>
+        <v>1.356309577250795</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.484111531977951</v>
+        <v>1.385390003995125</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.545636679403089</v>
+        <v>1.400234837454401</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.394978011451309</v>
+        <v>1.580955052310413</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.464865256931302</v>
+        <v>1.502697442429156</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.45562877700246</v>
+        <v>1.514118265521914</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.38762495009558</v>
+        <v>1.198645008062885</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.617246664668891</v>
+        <v>1.609105231091809</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.252107909970821</v>
+        <v>1.632333505640075</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.382722585744309</v>
+        <v>1.605743574379397</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.302778396624149</v>
+        <v>1.51688230884892</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.571307955579087</v>
+        <v>1.496941570431322</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.502961873665161</v>
+        <v>1.736304713964241</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.313945102346433</v>
+        <v>1.457886472741899</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.435525676684282</v>
+        <v>1.299958084313202</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.62809990870495</v>
+        <v>1.607661990768821</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.274190415038126</v>
+        <v>1.606929293318982</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.401578991477079</v>
+        <v>1.529083115093609</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.433411846317901</v>
+        <v>1.618073513390394</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.705884400636204</v>
+        <v>1.313293175060823</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.601708217259656</v>
+        <v>1.567123872330925</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.445383276437608</v>
+        <v>1.471489155856757</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.422961619570752</v>
+        <v>1.589017353575792</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.566991606050099</v>
+        <v>1.41399217814823</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.621998652715889</v>
+        <v>1.403515993196638</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.292528562007058</v>
+        <v>1.489401058372082</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.383330342132871</v>
+        <v>1.354874630991953</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.637944815412092</v>
+        <v>1.522172979938885</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.223756145835399</v>
+        <v>1.721364048586796</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.307856906373488</v>
+        <v>1.339572573616114</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.378626168282676</v>
+        <v>1.527569127877796</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.469646525361183</v>
+        <v>1.374232630974234</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.497890445213754</v>
+        <v>1.355947064603684</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.476573516871753</v>
+        <v>1.370259071692513</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.32137681970399</v>
+        <v>1.536123716417662</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.763356191393397</v>
+        <v>1.591444152660289</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.427985814692988</v>
+        <v>1.453325588935852</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.505231382650159</v>
+        <v>1.681136549567324</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.474567546362346</v>
+        <v>1.607459359233112</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.730924621910124</v>
+        <v>1.409717039738439</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.353596768621769</v>
+        <v>1.304861879682541</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.322141810209981</v>
+        <v>1.122584861342258</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.618615345647786</v>
+        <v>1.169254970787249</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.38740131092902</v>
+        <v>1.62972503859773</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.370660815276891</v>
+        <v>1.442028999879268</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.499691817041507</v>
+        <v>1.363518019900832</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.567914683115257</v>
+        <v>1.757649173968685</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.706327376309859</v>
+        <v>1.725471839372439</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.640129641413718</v>
+        <v>1.578891044881395</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.746666755347577</v>
+        <v>1.670270017574474</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.453600845836815</v>
+        <v>1.341601526293272</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.428695169179824</v>
+        <v>1.548584122677559</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.496215484790984</v>
+        <v>1.414541210738808</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.735896590509062</v>
+        <v>1.708504896087706</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.344675707945073</v>
+        <v>1.321849192618699</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.41445105510843</v>
+        <v>1.53880599755963</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.640717795218535</v>
+        <v>1.526114829170545</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.701206764571529</v>
+        <v>1.446877695470017</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.650614872081697</v>
+        <v>1.443547455044384</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.550460778301814</v>
+        <v>1.319873253524833</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.738208539812072</v>
+        <v>1.583146227051355</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.485000359430297</v>
+        <v>1.593975951793463</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.666001491557651</v>
+        <v>1.427062065066358</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.344909645468036</v>
+        <v>1.565407024598977</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.433741309235597</v>
+        <v>1.538966620768866</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1.620709675958877</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.400125609284441</v>
+        <v>1.505276563326346</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.491248539794146</v>
+        <v>1.766476275462688</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.539465359294491</v>
+        <v>1.525035512744534</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.665775319693436</v>
+        <v>1.402766195286188</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.481503280509153</v>
+        <v>1.429186945193672</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.733560707099103</v>
+        <v>1.501163812813622</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.320902845270965</v>
+        <v>1.633675429061423</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.557850967635607</v>
+        <v>1.533773295594339</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.647399794696137</v>
+        <v>1.921036957203525</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.425489123534732</v>
+        <v>1.460076908895492</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.440114701514156</v>
+        <v>1.571126683798612</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.544945341109306</v>
+        <v>1.423033637966282</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.484238160291751</v>
+        <v>1.635755591555105</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.63794679940023</v>
+        <v>1.461819644206474</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.411644956565815</v>
+        <v>1.523342327837602</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.421746726324771</v>
+        <v>1.460199536011289</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.715556435135845</v>
+        <v>1.468450020539887</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.576636797005926</v>
+        <v>1.371768260025404</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.678183407843121</v>
+        <v>1.580523454525408</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.763174752953574</v>
+        <v>1.396030618643073</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.563858530530764</v>
+        <v>1.28852632336806</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.288527722173547</v>
+        <v>1.53428036317498</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.25138862198793</v>
+        <v>1.459173618015589</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.506228943292269</v>
+        <v>1.697874685239106</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.330672331469305</v>
+        <v>1.832508381186866</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.697624150998744</v>
+        <v>1.600893026361634</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.695823821725077</v>
+        <v>1.327643195092634</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.581035103445692</v>
+        <v>1.684427426807577</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.83249157670518</v>
+        <v>1.559571254365516</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.36814427841793</v>
+        <v>1.502150249032151</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.495374736133581</v>
+        <v>1.585733055208357</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.629853137313814</v>
+        <v>1.409601958816686</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.238003158152821</v>
+        <v>1.473377761363468</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.655281291220779</v>
+        <v>1.219100564885162</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.25396435807935</v>
+        <v>1.491435167809713</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.421812582394308</v>
+        <v>1.269573735350594</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.515465531814555</v>
+        <v>1.555001593962829</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.145505057061655</v>
+        <v>1.269248993278293</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.42920032782751</v>
+        <v>1.367380048678673</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.443816107693973</v>
+        <v>1.416993191604037</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.459741809413988</v>
+        <v>1.565742902356897</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.385794249585428</v>
+        <v>1.297092630857536</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.458767732220242</v>
+        <v>1.439932475287458</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.407927366141171</v>
+        <v>1.651187564095261</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.376846031291208</v>
+        <v>1.482193641716941</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.220903371476968</v>
+        <v>1.499285961883154</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.33332476100497</v>
+        <v>1.348564330263221</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.55854792510387</v>
+        <v>1.598438030262407</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.590824137144824</v>
+        <v>1.561432485180789</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.365860640663841</v>
+        <v>1.472030113237684</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.539780810821426</v>
+        <v>1.276411983017318</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.314696870990639</v>
+        <v>1.323985217339553</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.618608065432193</v>
+        <v>1.685451882989485</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.688176653225761</v>
+        <v>1.458028370155659</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.640203168723122</v>
+        <v>1.739121628643049</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.495698319868872</v>
+        <v>1.626918220253174</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.489301566842358</v>
+        <v>1.846026679847926</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.427690951292206</v>
+        <v>1.475261682483325</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.288376534334165</v>
+        <v>1.426546266706014</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.712349953563965</v>
+        <v>1.396961192831679</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.63983690558061</v>
+        <v>1.47945653048389</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.502614476075087</v>
+        <v>1.525667293801548</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.520465567461093</v>
+        <v>1.473242641989128</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.661406254732274</v>
+        <v>1.661705623448571</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.348710654269341</v>
+        <v>1.596106350307877</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.422615236205031</v>
+        <v>1.467457711212329</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.663430251828394</v>
+        <v>1.27469268496966</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.352279373546478</v>
+        <v>1.601898526679171</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.546705119603587</v>
+        <v>1.586814520121768</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.476338176658347</v>
+        <v>1.707879072363137</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.479389345380497</v>
+        <v>1.51294502565447</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.747601756363651</v>
+        <v>1.529561980576</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.614887264940322</v>
+        <v>1.762976393106721</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.567466888022011</v>
+        <v>1.431291266906553</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.788839885004973</v>
+        <v>1.64977383304414</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.693991569549928</v>
+        <v>1.542696219446968</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.552435960755067</v>
+        <v>1.270664170541216</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.583230546737</v>
+        <v>1.630035271026824</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.220945070956917</v>
+        <v>1.5165126464743</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.143189505389346</v>
+        <v>1.545984363056023</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.457633600142113</v>
+        <v>1.546757017772153</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.377205661844543</v>
+        <v>1.290814853191799</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.45985722063033</v>
+        <v>1.577031511906757</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.46820075802362</v>
+        <v>1.188989699044759</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.419858791237104</v>
+        <v>1.424357524437637</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.246864957835242</v>
+        <v>1.331529801584962</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.749949359957322</v>
+        <v>1.468811006195903</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.539754252807213</v>
+        <v>1.744317262975606</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.362000827680129</v>
+        <v>1.677997292595986</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.426409130432246</v>
+        <v>1.530115822913872</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.66582169685775</v>
+        <v>1.506256999297984</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.481444168608352</v>
+        <v>1.493037143909727</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.266689967792548</v>
+        <v>1.398940197583198</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.311156811174712</v>
+        <v>1.269842566979045</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.375431481521803</v>
+        <v>1.665952804426559</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.356614606069353</v>
+        <v>1.526439573557649</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.552567629986759</v>
+        <v>1.560665824234695</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.675194588878915</v>
+        <v>1.311456848936302</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.578846872112473</v>
+        <v>1.655998165004349</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.491393646732806</v>
+        <v>1.328016865777004</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.598771264090447</v>
+        <v>1.542443060170624</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.388992394523963</v>
+        <v>1.528650771280111</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.480274688255709</v>
+        <v>1.417327457132677</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.486185472985696</v>
+        <v>1.606200152536819</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.406623865671726</v>
+        <v>1.496561515614631</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.328109039651281</v>
+        <v>1.126423542087802</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.443730995671752</v>
+        <v>1.527266035829849</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.396148623675073</v>
+        <v>1.795771161705162</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.634873263140305</v>
+        <v>1.818568611304906</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.757833265403153</v>
+        <v>1.552255552525169</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.524154663581941</v>
+        <v>1.501122662333612</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.648724153530284</v>
+        <v>1.493205339337134</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.776503840021252</v>
+        <v>1.395511969941733</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.749592910089202</v>
+        <v>1.770691377672126</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.659414939537673</v>
+        <v>1.548909920206776</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.243276328930857</v>
+        <v>1.619857824001389</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.539041709041032</v>
+        <v>1.434227535852534</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.562544442778974</v>
+        <v>1.31920850213095</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.615142918843868</v>
+        <v>1.438656481918551</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.34422071259996</v>
+        <v>1.633928569667999</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.376581862226188</v>
+        <v>1.659396637743054</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.72608293849095</v>
+        <v>1.490067982208248</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.682310940815384</v>
+        <v>1.729534728550713</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.674302933775103</v>
+        <v>1.479561266798118</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.445535781076668</v>
+        <v>1.470372061659024</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.36178135263546</v>
+        <v>1.623567520223732</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.476576017308421</v>
+        <v>1.342495058260307</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.432663214173888</v>
+        <v>1.469371495423555</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.393295515119972</v>
+        <v>1.245475714505051</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.589958454146151</v>
+        <v>1.624946491363502</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.584814605830162</v>
+        <v>1.242391180490624</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.572273045686866</v>
+        <v>1.801818705807376</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.476208299481234</v>
+        <v>1.525481681851187</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.618192921029475</v>
+        <v>1.523510744438576</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.471799729144645</v>
+        <v>1.712263658823888</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.501605967606602</v>
+        <v>1.425395579217759</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.588017597337266</v>
+        <v>1.635599676177767</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.45659744066066</v>
+        <v>1.73900791375492</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.403192102520428</v>
+        <v>1.450442893722472</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.465363827944806</v>
+        <v>1.673712302788684</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.581531920666651</v>
+        <v>1.592058248303645</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.496733147562501</v>
+        <v>1.628454549020151</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.858561171101484</v>
+        <v>1.48332425459682</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.577480603125867</v>
+        <v>1.610180792054378</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.561936690923615</v>
+        <v>1.503700672577257</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.465015185801648</v>
+        <v>1.768221735369731</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.599165563210277</v>
+        <v>1.621663028984018</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.489913335889295</v>
+        <v>1.724056870966784</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -31,6 +31,9 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
@@ -40,775 +43,772 @@
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.58441519633599</v>
+        <v>1.578092306954233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.494487818544671</v>
+        <v>1.718833200782556</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.735735900100545</v>
+        <v>1.417041497279273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.391173569765735</v>
+        <v>1.537004432031329</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.115674414321284</v>
+        <v>1.379559334044991</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.669896006443358</v>
+        <v>1.643071484481888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.636061336826109</v>
+        <v>1.334143784600189</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.405402805595978</v>
+        <v>1.453260425383165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.697209871356979</v>
+        <v>1.555984953769355</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.63958857174901</v>
+        <v>1.475384758073213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.500253579645391</v>
+        <v>1.458051142905399</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.201526079702788</v>
+        <v>1.410587835307355</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.629681408120709</v>
+        <v>1.259315829382539</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.663908453230271</v>
+        <v>1.413424069134505</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.358541298403463</v>
+        <v>1.548623951791868</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.326845979974628</v>
+        <v>1.587657959077359</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.448659840166964</v>
+        <v>1.255865346671997</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.327356734323741</v>
+        <v>1.366857548897804</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.765677105859931</v>
+        <v>1.251518831983991</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.18549602742984</v>
+        <v>1.577047328764887</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.58632016588625</v>
+        <v>1.323877166795679</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.556647283294874</v>
+        <v>1.266590126895272</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.135976265269592</v>
+        <v>1.230549366194772</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.397245713392943</v>
+        <v>1.522108700621907</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.6887590286747</v>
+        <v>1.341521207362019</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1.50054569241916</v>
+        <v>1.528734855321879</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.645021400324806</v>
+        <v>1.354249326496192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.398104899914779</v>
+        <v>1.254700924289925</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.519143098504775</v>
+        <v>1.468274504214833</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.622385642283764</v>
+        <v>1.497778743780917</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.494275917630204</v>
+        <v>1.294675165009908</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.74524090247032</v>
+        <v>1.42836439995029</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.378926556495429</v>
+        <v>1.462771799833769</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.381608311776649</v>
+        <v>1.561654484866682</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.644912699558773</v>
+        <v>1.187836571306045</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.50294437168935</v>
+        <v>1.174586582296993</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1.309252759940582</v>
+        <v>1.209372923511422</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.626541839241898</v>
+        <v>1.420472745321755</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.361510188590012</v>
+        <v>1.355802333326411</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.571917246609188</v>
+        <v>1.418717379843753</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.388981602768063</v>
+        <v>1.504869476938851</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.448960316407189</v>
+        <v>1.67275903551613</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.356309577250795</v>
+        <v>1.614695785895554</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.385390003995125</v>
+        <v>1.237731070049085</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.400234837454401</v>
+        <v>1.357696012099803</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.580955052310413</v>
+        <v>1.527658221078173</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.502697442429156</v>
+        <v>1.403712952144406</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.514118265521914</v>
+        <v>1.471926545174072</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.198645008062885</v>
+        <v>1.698110463898794</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.609105231091809</v>
+        <v>1.444507735900687</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.632333505640075</v>
+        <v>1.52589475340732</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.605743574379397</v>
+        <v>1.427862046410211</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.51688230884892</v>
+        <v>1.441925512237146</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.496941570431322</v>
+        <v>1.490301086584565</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.736304713964241</v>
+        <v>1.310050607619962</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.457886472741899</v>
+        <v>1.367749236514621</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.299958084313202</v>
+        <v>1.48139743177432</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.607661990768821</v>
+        <v>1.508322192834761</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.606929293318982</v>
+        <v>1.591776311616033</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.529083115093609</v>
+        <v>1.285332763577216</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.618073513390394</v>
+        <v>1.543802759294329</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.313293175060823</v>
+        <v>1.337794206292703</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.567123872330925</v>
+        <v>1.387346104558123</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.471489155856757</v>
+        <v>1.335072541984674</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.589017353575792</v>
+        <v>1.349626112758298</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.41399217814823</v>
+        <v>1.300074439969564</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.403515993196638</v>
+        <v>1.620658196422937</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.489401058372082</v>
+        <v>1.507476112089646</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.354874630991953</v>
+        <v>1.503896465324787</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.522172979938885</v>
+        <v>1.303031067648579</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.721364048586796</v>
+        <v>1.650922228692388</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.339572573616114</v>
+        <v>1.495618830418414</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.527569127877796</v>
+        <v>1.294478441439346</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.374232630974234</v>
+        <v>1.30218351666058</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.355947064603684</v>
+        <v>1.437800659092843</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.370259071692513</v>
+        <v>1.598524867843165</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.536123716417662</v>
+        <v>1.607029557714181</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.591444152660289</v>
+        <v>1.630322412574768</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.453325588935852</v>
+        <v>1.59533363220215</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.681136549567324</v>
+        <v>1.597305449755128</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.607459359233112</v>
+        <v>1.656346872793742</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.409717039738439</v>
+        <v>1.557900144617746</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1.304861879682541</v>
+        <v>1.517329308751622</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.122584861342258</v>
+        <v>1.695481834793717</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.169254970787249</v>
+        <v>1.418514517943906</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.62972503859773</v>
+        <v>1.26881577721792</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.442028999879268</v>
+        <v>1.647770427559578</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.363518019900832</v>
+        <v>1.218567469331872</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.757649173968685</v>
+        <v>1.391140075065485</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.725471839372439</v>
+        <v>1.671239829415806</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.578891044881395</v>
+        <v>1.392458930657689</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.670270017574474</v>
+        <v>1.343229750315265</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.341601526293272</v>
+        <v>1.523765834037649</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.548584122677559</v>
+        <v>1.685864658452628</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.414541210738808</v>
+        <v>1.526926837116485</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.708504896087706</v>
+        <v>1.471539175370367</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.321849192618699</v>
+        <v>1.432228165452263</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.53880599755963</v>
+        <v>1.696416447258973</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.526114829170545</v>
+        <v>1.453841261558673</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.446877695470017</v>
+        <v>1.305508146696758</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.443547455044384</v>
+        <v>1.679606181728127</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.319873253524833</v>
+        <v>1.578329744499197</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.583146227051355</v>
+        <v>1.534748249357751</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.593975951793463</v>
+        <v>1.523587081959335</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.427062065066358</v>
+        <v>1.593596076345942</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.565407024598977</v>
+        <v>1.555039015145817</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.538966620768866</v>
+        <v>1.332620429980095</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.620709675958877</v>
+        <v>1.387139858774767</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.505276563326346</v>
+        <v>1.5941398742045</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.766476275462688</v>
+        <v>1.492849491319703</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.525035512744534</v>
+        <v>1.591916981660012</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1.402766195286188</v>
+        <v>1.779984613244661</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.429186945193672</v>
+        <v>1.106224040300255</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.501163812813622</v>
+        <v>1.821993835114246</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.633675429061423</v>
+        <v>1.677228258686771</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.533773295594339</v>
+        <v>1.283779475905996</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.921036957203525</v>
+        <v>1.490627269141044</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.460076908895492</v>
+        <v>1.486988660553938</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.571126683798612</v>
+        <v>1.540591570302801</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.423033637966282</v>
+        <v>1.444091634357823</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.635755591555105</v>
+        <v>1.52796870290187</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.461819644206474</v>
+        <v>1.371977252998495</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.523342327837602</v>
+        <v>1.650096848924694</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.460199536011289</v>
+        <v>1.612067116867853</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.468450020539887</v>
+        <v>1.64185064871522</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.371768260025404</v>
+        <v>1.565850702498176</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.580523454525408</v>
+        <v>1.557744087557706</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.396030618643073</v>
+        <v>1.300993020573646</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.28852632336806</v>
+        <v>1.688295050832377</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.53428036317498</v>
+        <v>1.503254688886906</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.459173618015589</v>
+        <v>1.23499206461788</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.697874685239106</v>
+        <v>1.509847143806339</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.832508381186866</v>
+        <v>1.389135324123375</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.600893026361634</v>
+        <v>1.604119701759676</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.327643195092634</v>
+        <v>1.379260822037706</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.684427426807577</v>
+        <v>1.617129484422362</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.559571254365516</v>
+        <v>1.546041967257453</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.502150249032151</v>
+        <v>1.359788308371629</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.585733055208357</v>
+        <v>1.647050393344561</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.409601958816686</v>
+        <v>1.304366614456332</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.473377761363468</v>
+        <v>1.411424903923225</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.219100564885162</v>
+        <v>1.557853635566215</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.491435167809713</v>
+        <v>1.491306694966118</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.269573735350594</v>
+        <v>1.459628146406839</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.555001593962829</v>
+        <v>1.178223887486422</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.269248993278293</v>
+        <v>1.189875951788429</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.367380048678673</v>
+        <v>1.690454388717338</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.416993191604037</v>
+        <v>1.511463477425779</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.565742902356897</v>
+        <v>1.504235817961802</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.297092630857536</v>
+        <v>1.425032917825792</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.439932475287458</v>
+        <v>1.624609058543983</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.651187564095261</v>
+        <v>1.663936482258427</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.482193641716941</v>
+        <v>1.437641121020565</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.499285961883154</v>
+        <v>1.57259334003422</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.348564330263221</v>
+        <v>1.363989792585842</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.598438030262407</v>
+        <v>1.435760426403404</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.561432485180789</v>
+        <v>1.334965956652642</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.472030113237684</v>
+        <v>1.394685235277807</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.276411983017318</v>
+        <v>1.695033709155661</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.323985217339553</v>
+        <v>1.472625108727343</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.685451882989485</v>
+        <v>1.685236836536262</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.458028370155659</v>
+        <v>1.664549900458974</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.739121628643049</v>
+        <v>1.553570913468603</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.626918220253174</v>
+        <v>1.262488975323618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.846026679847926</v>
+        <v>1.433274928036302</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.475261682483325</v>
+        <v>1.453935015215601</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.426546266706014</v>
+        <v>1.227238327278445</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.396961192831679</v>
+        <v>1.596288542659526</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.47945653048389</v>
+        <v>1.39344756136643</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.525667293801548</v>
+        <v>1.597585469943441</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.473242641989128</v>
+        <v>1.337683513543577</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.661705623448571</v>
+        <v>1.36541654075009</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.596106350307877</v>
+        <v>1.70557389248739</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.467457711212329</v>
+        <v>1.346010471045447</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.27469268496966</v>
+        <v>1.332368632202934</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.601898526679171</v>
+        <v>1.593826784248362</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.586814520121768</v>
+        <v>1.472414271496628</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.707879072363137</v>
+        <v>1.417974033975925</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.51294502565447</v>
+        <v>1.765856737569532</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.529561980576</v>
+        <v>1.510489704656567</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.762976393106721</v>
+        <v>1.656693215578475</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.431291266906553</v>
+        <v>1.607557298900941</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.64977383304414</v>
+        <v>1.308954750843891</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.542696219446968</v>
+        <v>1.551030771018197</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F186">
-        <v>1.270664170541216</v>
+        <v>1.789237118685754</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.630035271026824</v>
+        <v>1.437848484304308</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.5165126464743</v>
+        <v>1.449681863162523</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.545984363056023</v>
+        <v>1.573744085700459</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.546757017772153</v>
+        <v>1.872694995182056</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.290814853191799</v>
+        <v>1.527161779457645</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.577031511906757</v>
+        <v>1.557312866064376</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.188989699044759</v>
+        <v>1.637096412122518</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.424357524437637</v>
+        <v>1.507587504193473</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.331529801584962</v>
+        <v>1.282959773584339</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.468811006195903</v>
+        <v>1.571670427359197</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.744317262975606</v>
+        <v>1.73768138903025</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.677997292595986</v>
+        <v>1.457531051493967</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.530115822913872</v>
+        <v>1.49559861594166</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.506256999297984</v>
+        <v>1.493470039008508</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.493037143909727</v>
+        <v>1.385901044604289</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.398940197583198</v>
+        <v>1.659768610529426</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.269842566979045</v>
+        <v>1.652299486844396</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.665952804426559</v>
+        <v>1.519365225570367</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.526439573557649</v>
+        <v>1.64194675882581</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.560665824234695</v>
+        <v>1.507462002788492</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.311456848936302</v>
+        <v>1.231921902103575</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.655998165004349</v>
+        <v>1.82020257428941</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.328016865777004</v>
+        <v>1.395433893767002</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.542443060170624</v>
+        <v>1.451476571572106</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.528650771280111</v>
+        <v>1.596086533790995</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.417327457132677</v>
+        <v>1.503529702286199</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.606200152536819</v>
+        <v>1.729211269872394</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.496561515614631</v>
+        <v>1.688764509433266</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.126423542087802</v>
+        <v>1.60223893735675</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.527266035829849</v>
+        <v>1.71668138704014</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.795771161705162</v>
+        <v>1.500702275786772</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.818568611304906</v>
+        <v>1.6449265766394</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.552255552525169</v>
+        <v>1.30662067567407</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.501122662333612</v>
+        <v>1.522452811134809</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.493205339337134</v>
+        <v>1.743389440951916</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.395511969941733</v>
+        <v>1.758978642993173</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.770691377672126</v>
+        <v>1.444732424658679</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.548909920206776</v>
+        <v>1.738058766043329</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.619857824001389</v>
+        <v>1.668283555981235</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.434227535852534</v>
+        <v>1.749078805298663</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.31920850213095</v>
+        <v>1.530793804297101</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.438656481918551</v>
+        <v>1.15099123600534</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.633928569667999</v>
+        <v>1.541245901256484</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.659396637743054</v>
+        <v>1.631474257345457</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.490067982208248</v>
+        <v>1.528977965247402</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.729534728550713</v>
+        <v>1.653119559298613</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.479561266798118</v>
+        <v>1.513782956982143</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.470372061659024</v>
+        <v>1.579946087232879</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.623567520223732</v>
+        <v>1.648745139046798</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.342495058260307</v>
+        <v>1.53237965043799</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.469371495423555</v>
+        <v>1.438901587331076</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.245475714505051</v>
+        <v>1.538959485497932</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.624946491363502</v>
+        <v>1.623674720825949</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.242391180490624</v>
+        <v>1.486977934230106</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.801818705807376</v>
+        <v>1.51937868030969</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.525481681851187</v>
+        <v>1.5028795198402</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.523510744438576</v>
+        <v>1.596528218155075</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.712263658823888</v>
+        <v>1.695850946828769</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.425395579217759</v>
+        <v>1.492544742784895</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.635599676177767</v>
+        <v>1.582300218157906</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.73900791375492</v>
+        <v>1.800235806312024</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.450442893722472</v>
+        <v>1.425041521180604</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.673712302788684</v>
+        <v>1.476224308593364</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.592058248303645</v>
+        <v>1.485036807143644</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.628454549020151</v>
+        <v>1.49815892675079</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.48332425459682</v>
+        <v>1.377514616150987</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.610180792054378</v>
+        <v>1.687258903430746</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.503700672577257</v>
+        <v>1.313586606600554</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.768221735369731</v>
+        <v>1.606661198919113</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.621663028984018</v>
+        <v>1.467631925674946</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.724056870966784</v>
+        <v>1.323898997001145</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -43,388 +43,391 @@
     <t>face</t>
   </si>
   <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
   </si>
   <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
@@ -433,382 +436,379 @@
     <t>face/face066.jpg</t>
   </si>
   <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.578092306954233</v>
+        <v>1.533930464383917</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.718833200782556</v>
+        <v>1.404245509700352</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.417041497279273</v>
+        <v>1.426912295621875</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.537004432031329</v>
+        <v>1.572115731554931</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.379559334044991</v>
+        <v>1.481640129452254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.643071484481888</v>
+        <v>1.309925126860429</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.334143784600189</v>
+        <v>1.823369581620917</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.453260425383165</v>
+        <v>1.387825705174775</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.555984953769355</v>
+        <v>1.446121234448091</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.475384758073213</v>
+        <v>1.413521690706385</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.458051142905399</v>
+        <v>1.327069863731587</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.410587835307355</v>
+        <v>1.351252439429365</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.259315829382539</v>
+        <v>1.486655219579113</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.413424069134505</v>
+        <v>1.431373169741442</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.548623951791868</v>
+        <v>1.561388614976189</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.587657959077359</v>
+        <v>1.441555141457762</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.255865346671997</v>
+        <v>1.64965865732563</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.366857548897804</v>
+        <v>1.475465482882288</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.251518831983991</v>
+        <v>1.542787882587218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.577047328764887</v>
+        <v>1.439070298635283</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.323877166795679</v>
+        <v>1.725146278243175</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.266590126895272</v>
+        <v>1.575289462190395</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.230549366194772</v>
+        <v>1.330499426059267</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.522108700621907</v>
+        <v>1.623589137282422</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.341521207362019</v>
+        <v>1.458211655925128</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.528734855321879</v>
+        <v>1.440441463460089</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.354249326496192</v>
+        <v>1.251035926726235</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.254700924289925</v>
+        <v>1.653663141535004</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.468274504214833</v>
+        <v>1.453716541990078</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.497778743780917</v>
+        <v>1.671693348214209</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.294675165009908</v>
+        <v>1.372566768621569</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.42836439995029</v>
+        <v>1.401580154823719</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.462771799833769</v>
+        <v>1.440369063939576</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.561654484866682</v>
+        <v>1.469660913807193</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.187836571306045</v>
+        <v>1.47584143755888</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.174586582296993</v>
+        <v>1.552164982722061</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.209372923511422</v>
+        <v>1.4839072687427</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.420472745321755</v>
+        <v>1.664276839862199</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.355802333326411</v>
+        <v>1.496818915530421</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.418717379843753</v>
+        <v>1.625636742786428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.504869476938851</v>
+        <v>1.660140444988034</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.67275903551613</v>
+        <v>1.477140156541396</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.614695785895554</v>
+        <v>1.455848418486919</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.237731070049085</v>
+        <v>1.570454465964442</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.357696012099803</v>
+        <v>1.767308353326959</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.527658221078173</v>
+        <v>1.198008126937198</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.403712952144406</v>
+        <v>1.641590242346668</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.471926545174072</v>
+        <v>1.470626287785969</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.698110463898794</v>
+        <v>1.588208460005401</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.444507735900687</v>
+        <v>1.436072064275386</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.52589475340732</v>
+        <v>1.564418315002439</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.427862046410211</v>
+        <v>1.523890222480363</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.441925512237146</v>
+        <v>1.291758066900092</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.490301086584565</v>
+        <v>1.383968835377441</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.310050607619962</v>
+        <v>1.569240907289905</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.367749236514621</v>
+        <v>1.281402090832026</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.48139743177432</v>
+        <v>1.318587662678188</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.508322192834761</v>
+        <v>1.502628715383842</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.591776311616033</v>
+        <v>1.656659775346894</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.285332763577216</v>
+        <v>1.707332463835628</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.543802759294329</v>
+        <v>1.606132774936698</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.337794206292703</v>
+        <v>1.28950692253985</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.387346104558123</v>
+        <v>1.399235431162662</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.335072541984674</v>
+        <v>1.672322933171867</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.349626112758298</v>
+        <v>1.465222704264101</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.300074439969564</v>
+        <v>1.399873553636574</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.620658196422937</v>
+        <v>1.471746322375127</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.507476112089646</v>
+        <v>1.555130834243031</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.503896465324787</v>
+        <v>1.303160731304357</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.303031067648579</v>
+        <v>1.652834792708681</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.650922228692388</v>
+        <v>1.159762493806425</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.495618830418414</v>
+        <v>1.511214220372596</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.294478441439346</v>
+        <v>1.377079044686811</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.30218351666058</v>
+        <v>1.59175732997703</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.437800659092843</v>
+        <v>1.633722901862998</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.598524867843165</v>
+        <v>1.662417229782121</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.607029557714181</v>
+        <v>1.573471583233134</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.630322412574768</v>
+        <v>1.403062979151442</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.59533363220215</v>
+        <v>1.459224765018428</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.597305449755128</v>
+        <v>1.55748637196573</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.656346872793742</v>
+        <v>1.626469849806138</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.557900144617746</v>
+        <v>1.459406997254768</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.517329308751622</v>
+        <v>1.735660247073437</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.695481834793717</v>
+        <v>1.546258567231983</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.418514517943906</v>
+        <v>1.555803899997626</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.26881577721792</v>
+        <v>1.715155309348915</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.647770427559578</v>
+        <v>1.298179825758386</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.218567469331872</v>
+        <v>1.536623238909147</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.391140075065485</v>
+        <v>1.690065646510251</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.671239829415806</v>
+        <v>1.643585796094972</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.392458930657689</v>
+        <v>1.758529776616069</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.343229750315265</v>
+        <v>1.375854741976581</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.523765834037649</v>
+        <v>1.574757965120731</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.685864658452628</v>
+        <v>1.48122738775249</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.526926837116485</v>
+        <v>1.497557435959034</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.471539175370367</v>
+        <v>1.582848216939638</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.432228165452263</v>
+        <v>1.771812690273537</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.696416447258973</v>
+        <v>1.478160756817607</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.453841261558673</v>
+        <v>1.211907343253964</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.305508146696758</v>
+        <v>1.375496945495486</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.679606181728127</v>
+        <v>1.601377893680346</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.578329744499197</v>
+        <v>1.304580609840679</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.534748249357751</v>
+        <v>1.408637844202501</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.523587081959335</v>
+        <v>1.510536062999823</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.593596076345942</v>
+        <v>1.38887593430602</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.555039015145817</v>
+        <v>1.853626919037092</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.332620429980095</v>
+        <v>1.483493355453558</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.387139858774767</v>
+        <v>1.623949136671112</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.5941398742045</v>
+        <v>1.49754925493186</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.492849491319703</v>
+        <v>1.484748769291268</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.591916981660012</v>
+        <v>1.603429530114503</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.779984613244661</v>
+        <v>1.378980423628342</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.106224040300255</v>
+        <v>1.533690670018679</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.821993835114246</v>
+        <v>1.471618783259736</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.677228258686771</v>
+        <v>1.437307590213186</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.283779475905996</v>
+        <v>1.558223178643486</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.490627269141044</v>
+        <v>1.608605303719907</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.486988660553938</v>
+        <v>1.391559535131376</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.540591570302801</v>
+        <v>1.453508727445728</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.444091634357823</v>
+        <v>1.435650770748652</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.52796870290187</v>
+        <v>1.496124713337785</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.371977252998495</v>
+        <v>1.224113580795989</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.650096848924694</v>
+        <v>1.583562673101262</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.612067116867853</v>
+        <v>1.242269661392999</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.64185064871522</v>
+        <v>1.635047759348281</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.565850702498176</v>
+        <v>1.489059920936034</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.557744087557706</v>
+        <v>1.392498779125264</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.300993020573646</v>
+        <v>1.578011700885341</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.688295050832377</v>
+        <v>1.549306596895806</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.503254688886906</v>
+        <v>1.364302145892146</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.23499206461788</v>
+        <v>1.348309503313093</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.509847143806339</v>
+        <v>1.285075365654165</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.389135324123375</v>
+        <v>1.509066454883877</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.604119701759676</v>
+        <v>1.608865702842692</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.379260822037706</v>
+        <v>1.424073857526344</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.617129484422362</v>
+        <v>1.26712711827073</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.546041967257453</v>
+        <v>1.307972867389541</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.359788308371629</v>
+        <v>1.605842600589315</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.647050393344561</v>
+        <v>1.492089709217343</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.304366614456332</v>
+        <v>1.117729550908383</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.411424903923225</v>
+        <v>1.47735577915398</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.557853635566215</v>
+        <v>1.66228714629486</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.491306694966118</v>
+        <v>1.713690067562897</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.459628146406839</v>
+        <v>1.360393116389127</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.178223887486422</v>
+        <v>1.48820212017052</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.189875951788429</v>
+        <v>1.580738623939752</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.690454388717338</v>
+        <v>1.572014777940449</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.511463477425779</v>
+        <v>1.791003682722148</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.504235817961802</v>
+        <v>1.54032350633908</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.425032917825792</v>
+        <v>1.537758667517503</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.624609058543983</v>
+        <v>1.495314340719298</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.663936482258427</v>
+        <v>1.500030591821247</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.437641121020565</v>
+        <v>1.760999395822849</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.57259334003422</v>
+        <v>1.43733027938177</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.363989792585842</v>
+        <v>1.56666504729531</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.435760426403404</v>
+        <v>1.741392715741655</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.334965956652642</v>
+        <v>1.474696929978891</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.394685235277807</v>
+        <v>1.525288590631818</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.695033709155661</v>
+        <v>1.434505075311263</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.472625108727343</v>
+        <v>1.333497876355469</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.685236836536262</v>
+        <v>1.595134408290964</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.664549900458974</v>
+        <v>1.361505546205138</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.553570913468603</v>
+        <v>1.62702881811088</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.262488975323618</v>
+        <v>1.635430195469959</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.433274928036302</v>
+        <v>1.410853439502677</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.453935015215601</v>
+        <v>1.541959270389867</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.227238327278445</v>
+        <v>1.742791949537822</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.596288542659526</v>
+        <v>1.728523619557759</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.39344756136643</v>
+        <v>1.266614873871455</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.597585469943441</v>
+        <v>1.444987764456982</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.337683513543577</v>
+        <v>1.560899133938375</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.36541654075009</v>
+        <v>1.524839200610077</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.70557389248739</v>
+        <v>1.718202115692975</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.346010471045447</v>
+        <v>1.506058436057772</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.332368632202934</v>
+        <v>1.647582867559772</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.593826784248362</v>
+        <v>1.483342503389489</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.472414271496628</v>
+        <v>1.496172102498248</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.417974033975925</v>
+        <v>1.440872515685553</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.765856737569532</v>
+        <v>1.24859604085473</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.510489704656567</v>
+        <v>1.510703236240265</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.656693215578475</v>
+        <v>1.681447845354984</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.607557298900941</v>
+        <v>1.611607057498595</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.308954750843891</v>
+        <v>1.515204342439187</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.551030771018197</v>
+        <v>1.562943039450284</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.789237118685754</v>
+        <v>1.392096887294956</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.437848484304308</v>
+        <v>1.554812083645419</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.449681863162523</v>
+        <v>1.281172554854208</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.573744085700459</v>
+        <v>1.589375459225881</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.872694995182056</v>
+        <v>1.668554432357858</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.527161779457645</v>
+        <v>1.522845116454946</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.557312866064376</v>
+        <v>1.72120853176733</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.637096412122518</v>
+        <v>1.288676649748072</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.507587504193473</v>
+        <v>1.784872893269407</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.282959773584339</v>
+        <v>1.701381468831788</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.571670427359197</v>
+        <v>1.590775008878186</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.73768138903025</v>
+        <v>1.465536196035055</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.457531051493967</v>
+        <v>1.403118478987683</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.49559861594166</v>
+        <v>1.505661120199541</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.493470039008508</v>
+        <v>1.322968692518885</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.385901044604289</v>
+        <v>1.703426252555119</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.659768610529426</v>
+        <v>1.317319526742217</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.652299486844396</v>
+        <v>1.737217663676612</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.519365225570367</v>
+        <v>1.528263062487084</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.64194675882581</v>
+        <v>1.793685902219742</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.507462002788492</v>
+        <v>1.446249328117352</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.231921902103575</v>
+        <v>1.415706522550877</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.82020257428941</v>
+        <v>1.544363235783037</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.395433893767002</v>
+        <v>1.616408380317353</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.451476571572106</v>
+        <v>1.519232795498394</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.596086533790995</v>
+        <v>1.117930656056194</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.503529702286199</v>
+        <v>1.366484100313519</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.729211269872394</v>
+        <v>1.66318263652935</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.688764509433266</v>
+        <v>1.426771957243151</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.60223893735675</v>
+        <v>1.624286194373209</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.71668138704014</v>
+        <v>1.875526927390365</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.500702275786772</v>
+        <v>1.22934149630267</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.6449265766394</v>
+        <v>1.802517133403698</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.30662067567407</v>
+        <v>1.557909773481065</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.522452811134809</v>
+        <v>1.427182059825378</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.743389440951916</v>
+        <v>1.464054974913262</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.758978642993173</v>
+        <v>1.344314358394626</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.444732424658679</v>
+        <v>1.555749426907781</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.738058766043329</v>
+        <v>1.668002048967934</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.668283555981235</v>
+        <v>1.80825307479342</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.749078805298663</v>
+        <v>1.357728339826533</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.530793804297101</v>
+        <v>1.539034781291926</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.15099123600534</v>
+        <v>1.406624564038273</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.541245901256484</v>
+        <v>1.880373280316597</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.631474257345457</v>
+        <v>1.678524160722677</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.528977965247402</v>
+        <v>1.583851549347758</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.653119559298613</v>
+        <v>1.390679260401212</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.513782956982143</v>
+        <v>1.418511662699862</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.579946087232879</v>
+        <v>1.49205445089089</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.648745139046798</v>
+        <v>1.42951059760823</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.53237965043799</v>
+        <v>1.505783153003443</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.438901587331076</v>
+        <v>1.470417274697669</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.538959485497932</v>
+        <v>1.618389703907488</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.623674720825949</v>
+        <v>1.742895586302535</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.486977934230106</v>
+        <v>1.245566145917953</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.51937868030969</v>
+        <v>1.53212949875892</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.5028795198402</v>
+        <v>1.717082446657974</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.596528218155075</v>
+        <v>1.136901861063053</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.695850946828769</v>
+        <v>1.634392639103017</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.492544742784895</v>
+        <v>1.346286497637942</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.582300218157906</v>
+        <v>1.156591100346689</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.800235806312024</v>
+        <v>1.520998150131942</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.425041521180604</v>
+        <v>1.844721530809392</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.476224308593364</v>
+        <v>1.654561407093166</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.485036807143644</v>
+        <v>1.447992253013552</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.49815892675079</v>
+        <v>1.593789757555632</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.377514616150987</v>
+        <v>1.620601660366333</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.687258903430746</v>
+        <v>1.431506953456862</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.313586606600554</v>
+        <v>1.30286220798592</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.606661198919113</v>
+        <v>1.271674150063517</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.467631925674946</v>
+        <v>1.600845478862976</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.323898997001145</v>
+        <v>1.401834299534554</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>house/house042.jpg</t>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
   </si>
   <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
     <t>dog/dog063.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>flower/flower096.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.533930464383917</v>
+        <v>1.580081638996236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.404245509700352</v>
+        <v>1.554298584061885</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.426912295621875</v>
+        <v>1.536594082370859</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.572115731554931</v>
+        <v>1.555301245933957</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.481640129452254</v>
+        <v>1.310739999717274</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.309925126860429</v>
+        <v>1.697984137542357</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.823369581620917</v>
+        <v>1.522067530210401</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1.387825705174775</v>
+        <v>1.619577164447172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.446121234448091</v>
+        <v>1.555464882443017</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.413521690706385</v>
+        <v>1.510157578711674</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.327069863731587</v>
+        <v>1.447629141955503</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.351252439429365</v>
+        <v>1.53180008990927</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.486655219579113</v>
+        <v>1.577184321083223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.431373169741442</v>
+        <v>1.336664614660918</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.561388614976189</v>
+        <v>1.747293570029912</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.441555141457762</v>
+        <v>1.461723785100828</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.64965865732563</v>
+        <v>1.673816690740845</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.475465482882288</v>
+        <v>1.503758423219331</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.542787882587218</v>
+        <v>1.635093184895127</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.439070298635283</v>
+        <v>1.304748468873023</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.725146278243175</v>
+        <v>1.580943572678321</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.575289462190395</v>
+        <v>1.49707063553312</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.330499426059267</v>
+        <v>1.541484443463796</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.623589137282422</v>
+        <v>1.560621443681204</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.458211655925128</v>
+        <v>1.514936623421534</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.440441463460089</v>
+        <v>1.658570587410169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.251035926726235</v>
+        <v>1.266560415713902</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.653663141535004</v>
+        <v>1.581845636872407</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.453716541990078</v>
+        <v>1.671266499684033</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.671693348214209</v>
+        <v>1.486840323519119</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.372566768621569</v>
+        <v>1.352349268742713</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.401580154823719</v>
+        <v>1.548926346152779</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.440369063939576</v>
+        <v>1.459918076880015</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.469660913807193</v>
+        <v>1.420384710152059</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.47584143755888</v>
+        <v>1.615813311323427</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.552164982722061</v>
+        <v>1.480334154494179</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.4839072687427</v>
+        <v>1.421637097364856</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.664276839862199</v>
+        <v>1.527641931694794</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.496818915530421</v>
+        <v>1.455009028647754</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.625636742786428</v>
+        <v>1.406546555878643</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.660140444988034</v>
+        <v>1.367420787493401</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.477140156541396</v>
+        <v>1.315049075836545</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.455848418486919</v>
+        <v>1.537621053675881</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.570454465964442</v>
+        <v>1.465423240087786</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.767308353326959</v>
+        <v>1.563948243712732</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.198008126937198</v>
+        <v>1.294022658759816</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.641590242346668</v>
+        <v>1.265306288662878</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.470626287785969</v>
+        <v>1.283766585886364</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.588208460005401</v>
+        <v>1.240761320055011</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.436072064275386</v>
+        <v>1.425992794072785</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.564418315002439</v>
+        <v>1.550092325893793</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.523890222480363</v>
+        <v>1.466951416467161</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.291758066900092</v>
+        <v>1.865976546422976</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.383968835377441</v>
+        <v>1.595426068405407</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.569240907289905</v>
+        <v>1.572043839399537</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.281402090832026</v>
+        <v>1.581367798941005</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.318587662678188</v>
+        <v>1.23839910626342</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.502628715383842</v>
+        <v>1.457228520920034</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.656659775346894</v>
+        <v>1.480210740071263</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.707332463835628</v>
+        <v>1.409771268252072</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.606132774936698</v>
+        <v>1.34732609085624</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.28950692253985</v>
+        <v>1.419668724671597</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.399235431162662</v>
+        <v>1.358300861553486</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.672322933171867</v>
+        <v>1.418163436929784</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.465222704264101</v>
+        <v>1.558155982829355</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.399873553636574</v>
+        <v>1.488874723292879</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.471746322375127</v>
+        <v>1.479037335641574</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.555130834243031</v>
+        <v>1.590542329799061</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.303160731304357</v>
+        <v>1.549923795106996</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.652834792708681</v>
+        <v>1.535406934017795</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.159762493806425</v>
+        <v>1.371508488694272</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.511214220372596</v>
+        <v>1.30770970881667</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.377079044686811</v>
+        <v>1.448936978623106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.59175732997703</v>
+        <v>1.509381359093182</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.633722901862998</v>
+        <v>1.509468222194277</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.662417229782121</v>
+        <v>1.479680470467643</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.573471583233134</v>
+        <v>1.586455993965959</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.403062979151442</v>
+        <v>1.613875160901243</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.459224765018428</v>
+        <v>1.603743159030889</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.55748637196573</v>
+        <v>1.655958762386</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.626469849806138</v>
+        <v>1.466680641925631</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.459406997254768</v>
+        <v>1.534241573137176</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.735660247073437</v>
+        <v>1.502517546678791</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.546258567231983</v>
+        <v>1.1760698542101</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.555803899997626</v>
+        <v>1.27826635483323</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.715155309348915</v>
+        <v>1.469316117209048</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.298179825758386</v>
+        <v>1.441493218304889</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.536623238909147</v>
+        <v>1.348526947379645</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.690065646510251</v>
+        <v>1.302446285805802</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.643585796094972</v>
+        <v>1.317811498557642</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.758529776616069</v>
+        <v>1.577216498840253</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.375854741976581</v>
+        <v>1.308547309010998</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.574757965120731</v>
+        <v>1.256258379017243</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.48122738775249</v>
+        <v>1.64468367120592</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.497557435959034</v>
+        <v>1.634452510264725</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.582848216939638</v>
+        <v>1.78724232877684</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.771812690273537</v>
+        <v>1.674012105231614</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.478160756817607</v>
+        <v>1.683269330248778</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.211907343253964</v>
+        <v>1.432688363332584</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.375496945495486</v>
+        <v>1.566295540898062</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.601377893680346</v>
+        <v>1.557559992908253</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.304580609840679</v>
+        <v>1.450638579788801</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.408637844202501</v>
+        <v>1.439538698302138</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1.510536062999823</v>
+        <v>1.591633181633573</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.38887593430602</v>
+        <v>1.524257717017547</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.853626919037092</v>
+        <v>1.425240018461029</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.483493355453558</v>
+        <v>1.535793180737027</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.623949136671112</v>
+        <v>1.584920960600071</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.49754925493186</v>
+        <v>1.739547914419451</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.484748769291268</v>
+        <v>1.689741475976983</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.603429530114503</v>
+        <v>1.613565925431047</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.378980423628342</v>
+        <v>1.450783760362885</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.533690670018679</v>
+        <v>1.509313103964975</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.471618783259736</v>
+        <v>1.610928392487854</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.437307590213186</v>
+        <v>1.403835314412895</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.558223178643486</v>
+        <v>1.412396005276608</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.608605303719907</v>
+        <v>1.573329601277563</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.391559535131376</v>
+        <v>1.281210660744281</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.453508727445728</v>
+        <v>1.405862814063332</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.435650770748652</v>
+        <v>1.287740807724489</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.496124713337785</v>
+        <v>1.51940491740058</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.224113580795989</v>
+        <v>1.483868991422114</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.583562673101262</v>
+        <v>1.584475899754112</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.242269661392999</v>
+        <v>1.502767717805897</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.635047759348281</v>
+        <v>1.529744848951083</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.489059920936034</v>
+        <v>1.440117738271199</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.392498779125264</v>
+        <v>1.495221650910377</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.578011700885341</v>
+        <v>1.459324440899959</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.549306596895806</v>
+        <v>1.420475851044007</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.364302145892146</v>
+        <v>1.386874527516393</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.348309503313093</v>
+        <v>1.601487310331378</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.285075365654165</v>
+        <v>1.508503577077767</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.509066454883877</v>
+        <v>1.448610400971015</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.608865702842692</v>
+        <v>1.394068173478299</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.424073857526344</v>
+        <v>1.425830607679596</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.26712711827073</v>
+        <v>1.485601977719535</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.307972867389541</v>
+        <v>1.306103135894426</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.605842600589315</v>
+        <v>1.543551166590969</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.492089709217343</v>
+        <v>1.504246838926508</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.117729550908383</v>
+        <v>1.514955956536195</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.47735577915398</v>
+        <v>1.410419386221109</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.66228714629486</v>
+        <v>1.535518414673028</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.713690067562897</v>
+        <v>1.478157967990607</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.360393116389127</v>
+        <v>1.218883220812518</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.48820212017052</v>
+        <v>1.502994851996056</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.580738623939752</v>
+        <v>1.513413811764189</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.572014777940449</v>
+        <v>1.500392181920784</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.791003682722148</v>
+        <v>1.480309987681699</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.54032350633908</v>
+        <v>1.744718006711353</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.537758667517503</v>
+        <v>1.584708397595822</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.495314340719298</v>
+        <v>1.796264660335113</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.500030591821247</v>
+        <v>1.656388602539583</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.760999395822849</v>
+        <v>1.622384228525575</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1.43733027938177</v>
+        <v>1.409136623415767</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.56666504729531</v>
+        <v>1.746996766731705</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.741392715741655</v>
+        <v>1.478910552760845</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.474696929978891</v>
+        <v>1.48513793221208</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.525288590631818</v>
+        <v>1.668329786052419</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.434505075311263</v>
+        <v>1.342399943483197</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.333497876355469</v>
+        <v>1.629203058960792</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.595134408290964</v>
+        <v>1.64684529047456</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.361505546205138</v>
+        <v>1.323174399592667</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.62702881811088</v>
+        <v>1.281166204277549</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.635430195469959</v>
+        <v>1.465008278572391</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.410853439502677</v>
+        <v>1.557473353270393</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.541959270389867</v>
+        <v>1.753134211714629</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.742791949537822</v>
+        <v>1.482838360227736</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.728523619557759</v>
+        <v>1.400990023948739</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.266614873871455</v>
+        <v>1.371270898467041</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.444987764456982</v>
+        <v>1.310867318198382</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.560899133938375</v>
+        <v>1.781677860802848</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.524839200610077</v>
+        <v>1.549176269847434</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.718202115692975</v>
+        <v>1.311291481442731</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.506058436057772</v>
+        <v>1.721439805863548</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.647582867559772</v>
+        <v>1.381759481150862</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.483342503389489</v>
+        <v>1.57699649785705</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.496172102498248</v>
+        <v>1.440657770733149</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.440872515685553</v>
+        <v>1.217357055419492</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.24859604085473</v>
+        <v>1.526334567073832</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.510703236240265</v>
+        <v>1.444655231946852</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.681447845354984</v>
+        <v>1.404443220203878</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.611607057498595</v>
+        <v>1.352897740836197</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.515204342439187</v>
+        <v>1.317598976018898</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.562943039450284</v>
+        <v>1.523732832824276</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.392096887294956</v>
+        <v>1.541036858606006</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.554812083645419</v>
+        <v>1.673436618900462</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.281172554854208</v>
+        <v>1.323639970958209</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.589375459225881</v>
+        <v>1.473410897565835</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.668554432357858</v>
+        <v>1.433246802177234</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.522845116454946</v>
+        <v>1.482832142074695</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.72120853176733</v>
+        <v>1.520994466863413</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.288676649748072</v>
+        <v>1.381217117975618</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.784872893269407</v>
+        <v>1.557797019464745</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.701381468831788</v>
+        <v>1.318948932670224</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.590775008878186</v>
+        <v>1.728127804093148</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.465536196035055</v>
+        <v>1.621866989828637</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.403118478987683</v>
+        <v>1.690539903345756</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.505661120199541</v>
+        <v>1.368051131582086</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.322968692518885</v>
+        <v>1.468546633419526</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.703426252555119</v>
+        <v>1.537601071646345</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.317319526742217</v>
+        <v>1.481522861811295</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.737217663676612</v>
+        <v>1.371803640490521</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.528263062487084</v>
+        <v>1.520127381217985</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.793685902219742</v>
+        <v>1.614941452030195</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.446249328117352</v>
+        <v>1.654818047081469</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.415706522550877</v>
+        <v>1.301086343253463</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.544363235783037</v>
+        <v>1.550990183681779</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.616408380317353</v>
+        <v>1.475394116773184</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.519232795498394</v>
+        <v>1.703330243945048</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.117930656056194</v>
+        <v>1.674729455834674</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.366484100313519</v>
+        <v>1.260018090719769</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.66318263652935</v>
+        <v>1.612220186829704</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.426771957243151</v>
+        <v>1.287664798764028</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.624286194373209</v>
+        <v>1.265260405641648</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.875526927390365</v>
+        <v>1.410559193932072</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.22934149630267</v>
+        <v>1.521216059792857</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.802517133403698</v>
+        <v>1.746728194926407</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.557909773481065</v>
+        <v>1.24695708760361</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.427182059825378</v>
+        <v>1.514688115911798</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.464054974913262</v>
+        <v>1.793137074723773</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.344314358394626</v>
+        <v>1.71282605284993</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.555749426907781</v>
+        <v>1.481417611509676</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.668002048967934</v>
+        <v>1.643514247077171</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.80825307479342</v>
+        <v>1.548331494111888</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.357728339826533</v>
+        <v>1.508140858937032</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.539034781291926</v>
+        <v>1.692338672035472</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.406624564038273</v>
+        <v>1.414948641470529</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.880373280316597</v>
+        <v>1.474761368082031</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.678524160722677</v>
+        <v>1.502892753669061</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.583851549347758</v>
+        <v>1.581852963214392</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.390679260401212</v>
+        <v>1.462995229657941</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.418511662699862</v>
+        <v>1.405245961353502</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.49205445089089</v>
+        <v>1.21203880727723</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.42951059760823</v>
+        <v>1.162496646944091</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.505783153003443</v>
+        <v>1.255594898762293</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.470417274697669</v>
+        <v>1.343776231537698</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.618389703907488</v>
+        <v>1.437693924277459</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.742895586302535</v>
+        <v>1.490423055202033</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.245566145917953</v>
+        <v>1.512903572152299</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.53212949875892</v>
+        <v>1.663314945986458</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.717082446657974</v>
+        <v>1.390633004637484</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.136901861063053</v>
+        <v>1.344330202668007</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.634392639103017</v>
+        <v>1.376615564900024</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.346286497637942</v>
+        <v>1.268559121882934</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.156591100346689</v>
+        <v>1.491662237813165</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.520998150131942</v>
+        <v>1.504255191282489</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.844721530809392</v>
+        <v>1.479225088073488</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>1.654561407093166</v>
+        <v>1.38133464755706</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.447992253013552</v>
+        <v>1.704935159841156</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.593789757555632</v>
+        <v>1.546347843529874</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.620601660366333</v>
+        <v>1.519082679239994</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.431506953456862</v>
+        <v>1.588093405324716</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.30286220798592</v>
+        <v>1.21184078812457</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.271674150063517</v>
+        <v>1.703969017042406</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.600845478862976</v>
+        <v>1.142530896435713</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.401834299534554</v>
+        <v>1.569414128600749</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.580081638996236</v>
+        <v>1.322307944754633</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.554298584061885</v>
+        <v>1.561068272919234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.536594082370859</v>
+        <v>1.843355702510013</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.555301245933957</v>
+        <v>1.519659900323999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.310739999717274</v>
+        <v>1.607594931754052</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.697984137542357</v>
+        <v>1.382700796877891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.522067530210401</v>
+        <v>1.302881696207894</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.619577164447172</v>
+        <v>1.600789426424729</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.555464882443017</v>
+        <v>1.373227408332247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.510157578711674</v>
+        <v>1.548018987906529</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.447629141955503</v>
+        <v>1.812459252883841</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.53180008990927</v>
+        <v>1.054648583168082</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.577184321083223</v>
+        <v>1.430533249251168</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.336664614660918</v>
+        <v>1.477354186697958</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.747293570029912</v>
+        <v>1.471279157845963</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.461723785100828</v>
+        <v>1.434336748816261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.673816690740845</v>
+        <v>1.412555948588961</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.503758423219331</v>
+        <v>1.483273670998292</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.635093184895127</v>
+        <v>1.56479095562203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.304748468873023</v>
+        <v>1.692892164056192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.580943572678321</v>
+        <v>1.397642657061583</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.49707063553312</v>
+        <v>1.719585556318099</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.541484443463796</v>
+        <v>1.547977093644925</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.560621443681204</v>
+        <v>1.423881281350194</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.514936623421534</v>
+        <v>1.209797572805336</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.658570587410169</v>
+        <v>1.605000832550718</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.266560415713902</v>
+        <v>1.376936182131524</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.581845636872407</v>
+        <v>1.562772931389952</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.671266499684033</v>
+        <v>1.537408408032593</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.486840323519119</v>
+        <v>1.554115193574829</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.352349268742713</v>
+        <v>1.653340342678557</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.548926346152779</v>
+        <v>1.435168026624666</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.459918076880015</v>
+        <v>1.433513698247303</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.420384710152059</v>
+        <v>1.605213455137714</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.615813311323427</v>
+        <v>1.669428098205895</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.480334154494179</v>
+        <v>1.483046151520671</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.421637097364856</v>
+        <v>1.415570154567749</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.527641931694794</v>
+        <v>1.401984015487571</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.455009028647754</v>
+        <v>1.589193743092018</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.406546555878643</v>
+        <v>1.63075392200214</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.367420787493401</v>
+        <v>1.576125184997802</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.315049075836545</v>
+        <v>1.701544953668263</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.537621053675881</v>
+        <v>1.417974407424969</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.465423240087786</v>
+        <v>1.428864500653559</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.563948243712732</v>
+        <v>1.568703175591906</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.294022658759816</v>
+        <v>1.467818346391714</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.265306288662878</v>
+        <v>1.627881926493645</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.283766585886364</v>
+        <v>1.322780340094415</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.240761320055011</v>
+        <v>1.553270301736048</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.425992794072785</v>
+        <v>1.415639925147543</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.550092325893793</v>
+        <v>1.4916015212232</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.466951416467161</v>
+        <v>1.417981429012527</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.865976546422976</v>
+        <v>1.372984903289922</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.595426068405407</v>
+        <v>1.175554183074891</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.572043839399537</v>
+        <v>1.515525695615464</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.581367798941005</v>
+        <v>1.415561184292724</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.23839910626342</v>
+        <v>1.502075314114005</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.457228520920034</v>
+        <v>1.403094323924993</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.480210740071263</v>
+        <v>1.501848405695746</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.409771268252072</v>
+        <v>1.236378249586978</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.34732609085624</v>
+        <v>1.449479670627015</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.419668724671597</v>
+        <v>1.644607217774114</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.358300861553486</v>
+        <v>1.398236218984135</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.418163436929784</v>
+        <v>1.424815429655802</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.558155982829355</v>
+        <v>1.222966542711714</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.488874723292879</v>
+        <v>1.567847851130942</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.479037335641574</v>
+        <v>1.596410301764565</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.590542329799061</v>
+        <v>1.870233260554924</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.549923795106996</v>
+        <v>1.5310569664616</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.535406934017795</v>
+        <v>1.402181596609092</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.371508488694272</v>
+        <v>1.472937149851961</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.30770970881667</v>
+        <v>1.613646822563119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.448936978623106</v>
+        <v>1.531529866014393</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.509381359093182</v>
+        <v>1.569144038237845</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.509468222194277</v>
+        <v>1.598225468348124</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.479680470467643</v>
+        <v>1.538854411451666</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.586455993965959</v>
+        <v>1.619260023769142</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.613875160901243</v>
+        <v>1.780723909479836</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.603743159030889</v>
+        <v>1.445010889727716</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.655958762386</v>
+        <v>1.467464910896285</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.466680641925631</v>
+        <v>1.853869211747102</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.534241573137176</v>
+        <v>1.391954815098328</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.502517546678791</v>
+        <v>1.430727955958897</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.1760698542101</v>
+        <v>1.595424502876702</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.27826635483323</v>
+        <v>1.545314424674873</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.469316117209048</v>
+        <v>1.545911094664477</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.441493218304889</v>
+        <v>1.504454611218862</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.348526947379645</v>
+        <v>1.528628141843353</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.302446285805802</v>
+        <v>1.615044024456265</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.317811498557642</v>
+        <v>1.425563955941739</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.577216498840253</v>
+        <v>1.444094843146782</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.308547309010998</v>
+        <v>1.387929122052703</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.256258379017243</v>
+        <v>1.941769225460826</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.64468367120592</v>
+        <v>1.304503096869006</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.634452510264725</v>
+        <v>1.25030398350069</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.78724232877684</v>
+        <v>1.258489250483861</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.674012105231614</v>
+        <v>1.655613756112337</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.683269330248778</v>
+        <v>1.595002054766743</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.432688363332584</v>
+        <v>1.197788892657757</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.566295540898062</v>
+        <v>1.468699637935541</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.557559992908253</v>
+        <v>1.680992425406019</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.450638579788801</v>
+        <v>1.745616289214495</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.439538698302138</v>
+        <v>1.370421529687137</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1.591633181633573</v>
+        <v>1.376917624859808</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.524257717017547</v>
+        <v>1.621261886076661</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.425240018461029</v>
+        <v>1.517400287953406</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.535793180737027</v>
+        <v>1.616538572128905</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.584920960600071</v>
+        <v>1.409401768625605</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.739547914419451</v>
+        <v>1.493056615182323</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.689741475976983</v>
+        <v>1.351476439590355</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.613565925431047</v>
+        <v>1.483117267304608</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.450783760362885</v>
+        <v>1.347451767484598</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.509313103964975</v>
+        <v>1.570343447840063</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.610928392487854</v>
+        <v>1.375413374829086</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.403835314412895</v>
+        <v>1.235141676866343</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.412396005276608</v>
+        <v>1.129818054365193</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.573329601277563</v>
+        <v>1.531213739830178</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.281210660744281</v>
+        <v>1.635172493169569</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.405862814063332</v>
+        <v>1.451313564510706</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.287740807724489</v>
+        <v>1.540651192071987</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.51940491740058</v>
+        <v>1.441111626333734</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.483868991422114</v>
+        <v>1.559220753553997</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.584475899754112</v>
+        <v>1.58599363210032</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.502767717805897</v>
+        <v>1.29716464682443</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.529744848951083</v>
+        <v>1.279166013562966</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.440117738271199</v>
+        <v>1.455526168259698</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.495221650910377</v>
+        <v>1.702199358724375</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.459324440899959</v>
+        <v>1.461953920300622</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.420475851044007</v>
+        <v>1.537092700003026</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.386874527516393</v>
+        <v>1.539899085421337</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.601487310331378</v>
+        <v>1.586188711390086</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.508503577077767</v>
+        <v>1.473308879026027</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.448610400971015</v>
+        <v>1.484129827655256</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.394068173478299</v>
+        <v>1.513995284612647</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.425830607679596</v>
+        <v>1.59568168765223</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.485601977719535</v>
+        <v>1.424486387829722</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.306103135894426</v>
+        <v>1.530834125936694</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.543551166590969</v>
+        <v>1.559117059831626</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.504246838926508</v>
+        <v>1.44958829804026</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.514955956536195</v>
+        <v>1.498368538954756</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.410419386221109</v>
+        <v>1.678280317936811</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.535518414673028</v>
+        <v>1.521315729611143</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.478157967990607</v>
+        <v>1.632322517034598</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.218883220812518</v>
+        <v>1.542671679592527</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.502994851996056</v>
+        <v>1.418094127057214</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.513413811764189</v>
+        <v>1.934611996904131</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.500392181920784</v>
+        <v>1.618013265832975</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.480309987681699</v>
+        <v>1.566436394485882</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.744718006711353</v>
+        <v>1.606503423367692</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.584708397595822</v>
+        <v>1.790674277910981</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.796264660335113</v>
+        <v>1.364868703841473</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.656388602539583</v>
+        <v>1.501554869964249</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.622384228525575</v>
+        <v>1.287442604139813</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.409136623415767</v>
+        <v>1.748406000545311</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.746996766731705</v>
+        <v>1.495050538722988</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.478910552760845</v>
+        <v>1.338667004716498</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.48513793221208</v>
+        <v>1.605094466975275</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.668329786052419</v>
+        <v>1.479995862714239</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.342399943483197</v>
+        <v>1.49170050568522</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.629203058960792</v>
+        <v>1.630015593117089</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.64684529047456</v>
+        <v>1.51010256698676</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.323174399592667</v>
+        <v>1.353406346591898</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.281166204277549</v>
+        <v>1.867492278275048</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.465008278572391</v>
+        <v>1.533167179885586</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.557473353270393</v>
+        <v>1.488872343309319</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.753134211714629</v>
+        <v>1.296767657642836</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.482838360227736</v>
+        <v>1.440357206155933</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.400990023948739</v>
+        <v>1.685352862076285</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.371270898467041</v>
+        <v>1.55745980791981</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.310867318198382</v>
+        <v>1.510628057028553</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.781677860802848</v>
+        <v>1.666954637139147</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.549176269847434</v>
+        <v>1.251639091257062</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.311291481442731</v>
+        <v>1.577953461468902</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.721439805863548</v>
+        <v>1.569138219121651</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.381759481150862</v>
+        <v>1.253746679873265</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.57699649785705</v>
+        <v>1.543418485496278</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.440657770733149</v>
+        <v>1.568277400656255</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.217357055419492</v>
+        <v>1.329247510051912</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.526334567073832</v>
+        <v>1.283205257345293</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.444655231946852</v>
+        <v>1.384852380496148</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.404443220203878</v>
+        <v>1.610679306920097</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.352897740836197</v>
+        <v>1.421698648490644</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.317598976018898</v>
+        <v>1.58381725339998</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.523732832824276</v>
+        <v>1.428056029038499</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.541036858606006</v>
+        <v>1.375973705553636</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.673436618900462</v>
+        <v>1.536806791896354</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.323639970958209</v>
+        <v>1.549585237963775</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.473410897565835</v>
+        <v>1.468520886003403</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.433246802177234</v>
+        <v>1.273652938762246</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.482832142074695</v>
+        <v>1.519428683606138</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.520994466863413</v>
+        <v>1.460872162886556</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.381217117975618</v>
+        <v>1.189140725179205</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.557797019464745</v>
+        <v>1.371033643053241</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.318948932670224</v>
+        <v>1.557124572224196</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.728127804093148</v>
+        <v>1.1880816154297</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.621866989828637</v>
+        <v>1.672465865089543</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.690539903345756</v>
+        <v>1.644633346981792</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.368051131582086</v>
+        <v>1.557614028076835</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.468546633419526</v>
+        <v>1.580425741865079</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.537601071646345</v>
+        <v>1.46943239502837</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.481522861811295</v>
+        <v>1.617433115521663</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.371803640490521</v>
+        <v>1.867863299524702</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.520127381217985</v>
+        <v>1.57145641933763</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.614941452030195</v>
+        <v>1.527203404070833</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.654818047081469</v>
+        <v>1.644138037497813</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.301086343253463</v>
+        <v>1.557705111738506</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.550990183681779</v>
+        <v>1.590234214953862</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.475394116773184</v>
+        <v>1.540631189493376</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.703330243945048</v>
+        <v>1.6959796045945</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.674729455834674</v>
+        <v>1.467475457505109</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.260018090719769</v>
+        <v>1.282189621705029</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.612220186829704</v>
+        <v>1.495670883730965</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.287664798764028</v>
+        <v>1.379087729506107</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.265260405641648</v>
+        <v>1.454820689728374</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.410559193932072</v>
+        <v>1.651785745809959</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.521216059792857</v>
+        <v>1.661137031125982</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.746728194926407</v>
+        <v>1.428946058750393</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.24695708760361</v>
+        <v>1.318232722528135</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.514688115911798</v>
+        <v>1.682947539457043</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.793137074723773</v>
+        <v>1.71310557850083</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.71282605284993</v>
+        <v>1.368481362879041</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.481417611509676</v>
+        <v>1.4844029959011</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.643514247077171</v>
+        <v>1.048806680500461</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.548331494111888</v>
+        <v>1.482898622953227</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.508140858937032</v>
+        <v>1.424229699672993</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.692338672035472</v>
+        <v>1.232941084815772</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.414948641470529</v>
+        <v>1.438555937482343</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.474761368082031</v>
+        <v>1.519151972515829</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.502892753669061</v>
+        <v>1.40884547379695</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.581852963214392</v>
+        <v>1.337079632881946</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.462995229657941</v>
+        <v>1.209087001975661</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.405245961353502</v>
+        <v>1.469176278714163</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.21203880727723</v>
+        <v>1.591825585690746</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.162496646944091</v>
+        <v>1.293542807185662</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.255594898762293</v>
+        <v>1.480113201546265</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.343776231537698</v>
+        <v>1.60788646828779</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.437693924277459</v>
+        <v>1.533839402952586</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.490423055202033</v>
+        <v>1.779563465375064</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.512903572152299</v>
+        <v>1.29348273389357</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.663314945986458</v>
+        <v>1.429866327958527</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.390633004637484</v>
+        <v>1.336902037857513</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.344330202668007</v>
+        <v>1.399732936427036</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.376615564900024</v>
+        <v>1.751953413790358</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.268559121882934</v>
+        <v>1.476684493580211</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.491662237813165</v>
+        <v>1.197949191007385</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.504255191282489</v>
+        <v>1.524782450669048</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.479225088073488</v>
+        <v>1.404807808288072</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.38133464755706</v>
+        <v>1.684031635644963</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.704935159841156</v>
+        <v>1.564073156298479</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.546347843529874</v>
+        <v>1.439432687038083</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.519082679239994</v>
+        <v>1.270822371131716</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.588093405324716</v>
+        <v>1.562484055095891</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.21184078812457</v>
+        <v>1.527402786312892</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.703969017042406</v>
+        <v>1.435098055512855</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.142530896435713</v>
+        <v>1.608748274459952</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.569414128600749</v>
+        <v>1.608149020799654</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/06_localizer.xlsx
+++ b/sequences/06_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.322307944754633</v>
+        <v>1.809445548297498</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.561068272919234</v>
+        <v>1.070797034093204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.843355702510013</v>
+        <v>1.382580252814388</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.519659900323999</v>
+        <v>1.500397493524562</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.607594931754052</v>
+        <v>1.491918516395795</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.382700796877891</v>
+        <v>1.193451266027725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.302881696207894</v>
+        <v>1.594653180635252</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.600789426424729</v>
+        <v>1.493861967830858</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.373227408332247</v>
+        <v>1.449939609284016</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.548018987906529</v>
+        <v>1.535128365134874</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.812459252883841</v>
+        <v>1.52529944065809</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.054648583168082</v>
+        <v>1.529314204801221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.430533249251168</v>
+        <v>1.750151320064515</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.477354186697958</v>
+        <v>1.539821689530255</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.471279157845963</v>
+        <v>1.581767084548069</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.434336748816261</v>
+        <v>1.770942933736666</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.412555948588961</v>
+        <v>1.432779883286824</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.483273670998292</v>
+        <v>1.612516653556731</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.56479095562203</v>
+        <v>1.479879317746028</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.692892164056192</v>
+        <v>1.359111889873057</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.397642657061583</v>
+        <v>1.346892593361739</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.719585556318099</v>
+        <v>1.440160134750022</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.547977093644925</v>
+        <v>1.472345141467813</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.423881281350194</v>
+        <v>1.41355841586024</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.209797572805336</v>
+        <v>1.600091947461285</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.605000832550718</v>
+        <v>1.585545134445831</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.376936182131524</v>
+        <v>1.455157778147945</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.562772931389952</v>
+        <v>1.509856883940598</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.537408408032593</v>
+        <v>1.461910869027488</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.554115193574829</v>
+        <v>1.685047532193904</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.653340342678557</v>
+        <v>1.413186946959877</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.435168026624666</v>
+        <v>1.541182615849362</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.433513698247303</v>
+        <v>1.428962818617197</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.605213455137714</v>
+        <v>1.387952056693835</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.669428098205895</v>
+        <v>1.5110659056026</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.483046151520671</v>
+        <v>1.169448539394116</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.415570154567749</v>
+        <v>1.748856888673429</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.401984015487571</v>
+        <v>1.59196973244852</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.589193743092018</v>
+        <v>1.65911673647792</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.63075392200214</v>
+        <v>1.357619717339502</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.576125184997802</v>
+        <v>1.301145795122208</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.701544953668263</v>
+        <v>1.749155852832794</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.417974407424969</v>
+        <v>1.358988722618031</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.428864500653559</v>
+        <v>1.463097639583995</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.568703175591906</v>
+        <v>1.654665088337819</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.467818346391714</v>
+        <v>1.193852765300339</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.627881926493645</v>
+        <v>1.727237859931382</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.322780340094415</v>
+        <v>1.450478072042955</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.553270301736048</v>
+        <v>1.413182660080667</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.415639925147543</v>
+        <v>1.416562525764084</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.4916015212232</v>
+        <v>1.734699793359826</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.417981429012527</v>
+        <v>1.316125243509827</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.372984903289922</v>
+        <v>1.239629120822109</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.175554183074891</v>
+        <v>1.632137475656668</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.515525695615464</v>
+        <v>1.568086972482991</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.415561184292724</v>
+        <v>1.531376867734211</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.502075314114005</v>
+        <v>1.457444753270301</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.403094323924993</v>
+        <v>1.41245472270559</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.501848405695746</v>
+        <v>1.31953054571737</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.236378249586978</v>
+        <v>1.420204053641306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.449479670627015</v>
+        <v>1.573025043836403</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.644607217774114</v>
+        <v>1.48305988630083</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.398236218984135</v>
+        <v>1.492934332645058</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.424815429655802</v>
+        <v>1.588775229164634</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.222966542711714</v>
+        <v>1.693957597931991</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.567847851130942</v>
+        <v>1.340722076856899</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.596410301764565</v>
+        <v>1.539796032390263</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.870233260554924</v>
+        <v>1.431777158973973</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.5310569664616</v>
+        <v>1.598567829601265</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.402181596609092</v>
+        <v>1.439038183267758</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.472937149851961</v>
+        <v>1.624006471377662</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.613646822563119</v>
+        <v>1.575600066573787</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.531529866014393</v>
+        <v>1.399108277076948</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.569144038237845</v>
+        <v>1.431531960734207</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.598225468348124</v>
+        <v>1.353231066681897</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.538854411451666</v>
+        <v>1.552919316619753</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.619260023769142</v>
+        <v>1.499671117123013</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.780723909479836</v>
+        <v>1.84062403451023</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.445010889727716</v>
+        <v>1.815393682549881</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.467464910896285</v>
+        <v>1.487665134868978</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.853869211747102</v>
+        <v>1.393078825310395</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.391954815098328</v>
+        <v>1.420977984124071</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.430727955958897</v>
+        <v>1.525040218035227</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.595424502876702</v>
+        <v>1.491138707279495</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.545314424674873</v>
+        <v>1.668065516487431</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.545911094664477</v>
+        <v>1.37791753715871</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.504454611218862</v>
+        <v>1.432594626643772</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.528628141843353</v>
+        <v>1.563977132777993</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.615044024456265</v>
+        <v>1.716262299590593</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.425563955941739</v>
+        <v>1.27232007336732</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.444094843146782</v>
+        <v>1.350521872916516</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.387929122052703</v>
+        <v>1.489076292159361</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.941769225460826</v>
+        <v>1.579077759200224</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.304503096869006</v>
+        <v>1.592781098977396</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.25030398350069</v>
+        <v>1.610889025191634</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.258489250483861</v>
+        <v>1.616158227655519</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.655613756112337</v>
+        <v>1.235174251092572</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.595002054766743</v>
+        <v>1.575924896750219</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.197788892657757</v>
+        <v>1.198334929747288</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.468699637935541</v>
+        <v>1.552634722212374</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.680992425406019</v>
+        <v>1.378188840642817</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.745616289214495</v>
+        <v>1.421227168957591</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1.370421529687137</v>
+        <v>1.654021408034018</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.376917624859808</v>
+        <v>1.791351715776669</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.621261886076661</v>
+        <v>1.416701298747958</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.517400287953406</v>
+        <v>1.480622714620687</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.616538572128905</v>
+        <v>1.428356494569486</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.409401768625605</v>
+        <v>1.636297282959971</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.493056615182323</v>
+        <v>1.262669159088556</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.351476439590355</v>
+        <v>1.565071498894818</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.483117267304608</v>
+        <v>1.785063245992911</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.347451767484598</v>
+        <v>1.514712347274539</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.570343447840063</v>
+        <v>1.434272294074251</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.375413374829086</v>
+        <v>1.451842553438776</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.235141676866343</v>
+        <v>1.632320653847648</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.129818054365193</v>
+        <v>1.806323338416458</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.531213739830178</v>
+        <v>1.503203281136939</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.635172493169569</v>
+        <v>1.298259792784584</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.451313564510706</v>
+        <v>1.822118262182978</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.540651192071987</v>
+        <v>1.699339743578995</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.441111626333734</v>
+        <v>1.330063749270199</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.559220753553997</v>
+        <v>1.386909249666638</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.58599363210032</v>
+        <v>1.393910681362848</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.29716464682443</v>
+        <v>1.568798546753265</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.279166013562966</v>
+        <v>1.936119485552903</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.455526168259698</v>
+        <v>1.392506088522158</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.702199358724375</v>
+        <v>1.679670126544122</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.461953920300622</v>
+        <v>1.554032892267515</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.537092700003026</v>
+        <v>1.405501014084625</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.539899085421337</v>
+        <v>1.634621662620248</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.586188711390086</v>
+        <v>1.569540757662576</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.473308879026027</v>
+        <v>1.525593566722928</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.484129827655256</v>
+        <v>1.68661533283864</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.513995284612647</v>
+        <v>1.612658736476931</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.59568168765223</v>
+        <v>1.482723500158369</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.424486387829722</v>
+        <v>1.457280549161052</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.530834125936694</v>
+        <v>1.507481727707572</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.559117059831626</v>
+        <v>1.530830432098679</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.44958829804026</v>
+        <v>1.331661213377932</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.498368538954756</v>
+        <v>1.572359834270753</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.678280317936811</v>
+        <v>1.223191065551989</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.521315729611143</v>
+        <v>1.976794507843649</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.632322517034598</v>
+        <v>1.813017172816469</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.542671679592527</v>
+        <v>1.421589554578036</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.418094127057214</v>
+        <v>1.506733055547007</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1.934611996904131</v>
+        <v>1.707648418877961</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.618013265832975</v>
+        <v>1.608374960042592</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.566436394485882</v>
+        <v>1.789124413916408</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.606503423367692</v>
+        <v>1.472091798124534</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.790674277910981</v>
+        <v>1.731323079084715</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.364868703841473</v>
+        <v>1.443717239919879</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.501554869964249</v>
+        <v>1.069849669986902</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.287442604139813</v>
+        <v>1.404066497520886</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.748406000545311</v>
+        <v>1.566023520686478</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.495050538722988</v>
+        <v>1.230642321494228</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.338667004716498</v>
+        <v>1.51080800097722</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.605094466975275</v>
+        <v>1.394071824234126</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.479995862714239</v>
+        <v>1.345374292180843</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.49170050568522</v>
+        <v>1.752082806315436</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.630015593117089</v>
+        <v>1.67497680131345</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.51010256698676</v>
+        <v>1.66125186469582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.353406346591898</v>
+        <v>1.487071939309206</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.867492278275048</v>
+        <v>1.465404974342575</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.533167179885586</v>
+        <v>1.436250451985598</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.488872343309319</v>
+        <v>1.641461221388655</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.296767657642836</v>
+        <v>1.485813526107301</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.440357206155933</v>
+        <v>1.596560305212188</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.685352862076285</v>
+        <v>1.651476961702058</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.55745980791981</v>
+        <v>1.580746718506016</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.510628057028553</v>
+        <v>1.510260631157504</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.666954637139147</v>
+        <v>1.407595110476486</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.251639091257062</v>
+        <v>1.730153257945223</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.577953461468902</v>
+        <v>1.683290033298536</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.569138219121651</v>
+        <v>1.279259279937726</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.253746679873265</v>
+        <v>1.422051362190976</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.543418485496278</v>
+        <v>1.140382828917873</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.568277400656255</v>
+        <v>1.372246004993774</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.329247510051912</v>
+        <v>1.450493807930843</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.283205257345293</v>
+        <v>1.575674724766262</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.384852380496148</v>
+        <v>1.362091121406797</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.610679306920097</v>
+        <v>1.386202336086697</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.421698648490644</v>
+        <v>1.453556720030968</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.58381725339998</v>
+        <v>1.479220466728733</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.428056029038499</v>
+        <v>1.279466015947391</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.375973705553636</v>
+        <v>1.461588222593029</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.536806791896354</v>
+        <v>1.660121197111804</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.549585237963775</v>
+        <v>1.406932011155751</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.468520886003403</v>
+        <v>1.554834164548121</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.273652938762246</v>
+        <v>1.515068444011645</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.519428683606138</v>
+        <v>1.493813773362972</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.460872162886556</v>
+        <v>1.716970733749408</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.189140725179205</v>
+        <v>1.777686500674822</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.371033643053241</v>
+        <v>1.222274894269047</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.557124572224196</v>
+        <v>1.82325582439544</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.1880816154297</v>
+        <v>1.667281787920846</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.672465865089543</v>
+        <v>1.606292945975643</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.644633346981792</v>
+        <v>1.432899663757284</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.557614028076835</v>
+        <v>1.834864275038075</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.580425741865079</v>
+        <v>1.563080579232446</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.46943239502837</v>
+        <v>1.521409756011394</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.617433115521663</v>
+        <v>1.267924709844215</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.867863299524702</v>
+        <v>1.522578979310234</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.57145641933763</v>
+        <v>1.709553661973188</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.527203404070833</v>
+        <v>1.353180439190156</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.644138037497813</v>
+        <v>1.405759790206125</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.557705111738506</v>
+        <v>1.443809670581599</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.590234214953862</v>
+        <v>1.511351373340336</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.540631189493376</v>
+        <v>1.438794674301946</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.6959796045945</v>
+        <v>1.345907371419845</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.467475457505109</v>
+        <v>1.57792983902145</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.282189621705029</v>
+        <v>1.232642557850356</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.495670883730965</v>
+        <v>1.296955590989093</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.379087729506107</v>
+        <v>1.584352857142863</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.454820689728374</v>
+        <v>1.304814035821178</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.651785745809959</v>
+        <v>1.613628324475875</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.661137031125982</v>
+        <v>1.743952984301681</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.428946058750393</v>
+        <v>1.578315898024583</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.318232722528135</v>
+        <v>1.547104317366385</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.682947539457043</v>
+        <v>1.285306873549801</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.71310557850083</v>
+        <v>1.364506760943223</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.368481362879041</v>
+        <v>1.288267004580742</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.4844029959011</v>
+        <v>1.56249622189363</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.048806680500461</v>
+        <v>1.513702587532422</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.482898622953227</v>
+        <v>1.716046287176365</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.424229699672993</v>
+        <v>1.681515492720732</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F227">
-        <v>1.232941084815772</v>
+        <v>1.466836264353109</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.438555937482343</v>
+        <v>1.367783713978137</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.519151972515829</v>
+        <v>1.651231918432648</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.40884547379695</v>
+        <v>1.720464324822525</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.337079632881946</v>
+        <v>1.424592067789486</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.209087001975661</v>
+        <v>1.468863428857324</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.469176278714163</v>
+        <v>1.531031217962952</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.591825585690746</v>
+        <v>1.738013364952721</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.293542807185662</v>
+        <v>1.565488116797977</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.480113201546265</v>
+        <v>1.514307559839161</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.60788646828779</v>
+        <v>1.629182214720475</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.533839402952586</v>
+        <v>1.600065767194652</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.779563465375064</v>
+        <v>1.513590361529594</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.29348273389357</v>
+        <v>1.563368035131055</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.429866327958527</v>
+        <v>1.527628779966923</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.336902037857513</v>
+        <v>1.307591129791875</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.399732936427036</v>
+        <v>1.351910532264935</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.751953413790358</v>
+        <v>1.422587117027651</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.476684493580211</v>
+        <v>1.554335058881996</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.197949191007385</v>
+        <v>1.210068671904555</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.524782450669048</v>
+        <v>1.362027133786573</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.404807808288072</v>
+        <v>1.332532014949721</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.684031635644963</v>
+        <v>1.29123833454376</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.564073156298479</v>
+        <v>1.279462477617076</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.439432687038083</v>
+        <v>1.568830431443712</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.270822371131716</v>
+        <v>1.681924877262043</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.562484055095891</v>
+        <v>1.759517922288235</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.527402786312892</v>
+        <v>1.293445948604686</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.435098055512855</v>
+        <v>1.343103836510367</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.608748274459952</v>
+        <v>1.738759814306739</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.608149020799654</v>
+        <v>1.46074432651181</v>
       </c>
     </row>
   </sheetData>
